--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54845606-5F34-4F32-AB18-1CB8D3088B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0123B742-9CCA-42DE-9F99-3507399C0778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,8 @@
     <t>Sinh Nhật</t>
   </si>
   <si>
-    <t>14/03: Ngủ quên</t>
+    <t>14/03: Ngủ quên
+17/03: Xin về sớm buổi chiều</t>
   </si>
 </sst>
 </file>
@@ -355,7 +356,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,7 +366,7 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>

--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0123B742-9CCA-42DE-9F99-3507399C0778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E13C9-4BF1-4E82-8B7E-41DDFE39C312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Trương Tiến Toàn</t>
   </si>
@@ -32,7 +32,12 @@
   </si>
   <si>
     <t>14/03: Ngủ quên
-17/03: Xin về sớm buổi chiều</t>
+17/03: Xin về sớm buổi chiều
+24/03: Xin nghỉ buổi chiều
+24/03: không nộp bài (sao chép bài bạn)</t>
+  </si>
+  <si>
+    <t>24/03: Không soạn bài (sao chép bài bạn)</t>
   </si>
 </sst>
 </file>
@@ -356,7 +361,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +371,7 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -374,11 +379,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E13C9-4BF1-4E82-8B7E-41DDFE39C312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36FFC05-1DB6-453B-9EDE-0B3F559C7373}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,15 @@
     <t>Sinh Nhật</t>
   </si>
   <si>
+    <t xml:space="preserve">24/03: Không soạn bài (sao chép bài bạn)
+</t>
+  </si>
+  <si>
     <t>14/03: Ngủ quên
 17/03: Xin về sớm buổi chiều
 24/03: Xin nghỉ buổi chiều
-24/03: không nộp bài (sao chép bài bạn)</t>
-  </si>
-  <si>
-    <t>24/03: Không soạn bài (sao chép bài bạn)</t>
+24/03: không nộp bài (sao chép bài bạn)
+27/03: Chưa làm bài tập</t>
   </si>
 </sst>
 </file>
@@ -361,7 +363,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,20 +373,20 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
